--- a/app/src/main/assets/vehicle_des.xlsx
+++ b/app/src/main/assets/vehicle_des.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenh\Documents\GitHub\ObjectOwl\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenhao\GitHub\ObjectOwl\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2251-13E5-4315-B54E-236790DBF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BF5B7-32D8-4E7A-AB9F-FCFBCD739EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Fire truck</t>
-  </si>
-  <si>
-    <t>Police car</t>
   </si>
   <si>
     <t>Helicopter</t>
@@ -160,12 +157,6 @@
 How It’s Used: Fire trucks rush to fires with their sirens on to rescue people and put out fires with their hoses and ladders.
 Fun Fact: Some fire trucks have ladders that can reach up to 100 feet high!
 Learning Benefit: Fire trucks help firefighters reach burning buildings quickly to save people, pets, and property.</t>
-  </si>
-  <si>
-    <t>Description: A police car is a fast vehicle used by police officers to catch criminals, patrol neighborhoods, and respond to emergencies.
-How It’s Used: Police cars have flashing lights and sirens to quickly get to the scene of an emergency or to chase after someone.
-Fun Fact: The fastest police car in the world can go over 250 miles per hour!
-Learning Benefit: Police cars help officers keep us safe by responding quickly to emergencies and catching people who break the law.</t>
   </si>
   <si>
     <t>Description: A helicopter is a flying vehicle with spinning blades on top. It can take off straight up into the air and hover in place.
@@ -522,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -542,156 +533,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
